--- a/оценки.xlsx
+++ b/оценки.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
     <sheet name="Sheet 1 - Quiz 1" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet 2 - Quiz 3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet 3 - Quiz 4" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -329,6 +330,18 @@
   </si>
   <si>
     <t>Попов Дмитрий</t>
+  </si>
+  <si>
+    <t>Sheet 3</t>
+  </si>
+  <si>
+    <t>Quiz 4</t>
+  </si>
+  <si>
+    <t>Sheet 3 - Quiz 4</t>
+  </si>
+  <si>
+    <t>Тульчинский Эдуард</t>
   </si>
 </sst>
 </file>
@@ -554,7 +567,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -646,6 +659,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1789,6 +1805,22 @@
         <v>102</v>
       </c>
     </row>
+    <row r="13">
+      <c r="B13" t="s" s="3">
+        <v>105</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s" s="4">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s" s="5">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -1796,6 +1828,7 @@
   <hyperlinks>
     <hyperlink ref="D10" location="'Sheet 1 - Quiz 1'!R2C1" tooltip="" display="Sheet 1 - Quiz 1"/>
     <hyperlink ref="D12" location="'Sheet 2 - Quiz 3'!R2C1" tooltip="" display="Sheet 2 - Quiz 3"/>
+    <hyperlink ref="D14" location="'Sheet 3 - Quiz 4'!R2C1" tooltip="" display="Sheet 3 - Quiz 4"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -4540,12 +4573,25 @@
       <c r="A62" t="s" s="23">
         <v>72</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="B62" s="17">
+        <v>2</v>
+      </c>
+      <c r="C62" s="18">
+        <v>2</v>
+      </c>
+      <c r="D62" s="18">
+        <v>2</v>
+      </c>
+      <c r="E62" s="18">
+        <v>2</v>
+      </c>
+      <c r="F62" s="18">
+        <v>2</v>
+      </c>
+      <c r="G62" s="18">
+        <f>B62+C62+D62+E62+F62</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="63" ht="36.75" customHeight="1">
       <c r="A63" t="s" s="23">
@@ -4898,14 +4944,14 @@
         <v>2</v>
       </c>
       <c r="E83" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F83" s="18">
         <v>2</v>
       </c>
       <c r="G83" s="18">
         <f>B83+C83+D83+E83+F83</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" ht="36.75" customHeight="1">
@@ -5069,6 +5115,1682 @@
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B85:G85"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:G93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="7" width="16.3516" style="31" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>106</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="27">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27">
+        <v>3</v>
+      </c>
+      <c r="E2" s="27">
+        <v>4</v>
+      </c>
+      <c r="F2" s="27">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" t="s" s="30">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" ht="44.05" customHeight="1">
+      <c r="A4" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" ht="44.05" customHeight="1">
+      <c r="A5" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="18">
+        <f>B5+C5+D5+E5+F5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="44.05" customHeight="1">
+      <c r="A6" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2</v>
+      </c>
+      <c r="G6" s="18">
+        <f>B6+C6+D6+E6+F6</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="44.05" customHeight="1">
+      <c r="A7" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" ht="32.05" customHeight="1">
+      <c r="A8" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18">
+        <v>2</v>
+      </c>
+      <c r="G8" s="18">
+        <f>B8+C8+D8+E8+F8</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" ht="44.05" customHeight="1">
+      <c r="A9" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" ht="32.05" customHeight="1">
+      <c r="A10" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="B10" s="17">
+        <v>2</v>
+      </c>
+      <c r="C10" s="18">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="18">
+        <v>2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2</v>
+      </c>
+      <c r="G10" s="18">
+        <f>B10+C10+D10+E10+F10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" ht="32.05" customHeight="1">
+      <c r="A11" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" ht="32.05" customHeight="1">
+      <c r="A12" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" ht="32.05" customHeight="1">
+      <c r="A13" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="18">
+        <f>B13+C13+D13+E13+F13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="32.05" customHeight="1">
+      <c r="A14" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="B14" s="17">
+        <v>2</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2</v>
+      </c>
+      <c r="G14" s="18">
+        <f>B14+C14+D14+E14+F14</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="44.05" customHeight="1">
+      <c r="A15" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18">
+        <f>B15+C15+D15+E15+F15</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="32.05" customHeight="1">
+      <c r="A16" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="B16" s="17">
+        <v>2</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>2</v>
+      </c>
+      <c r="G16" s="18">
+        <f>B16+C16+D16+E16+F16</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="32.05" customHeight="1">
+      <c r="A17" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2</v>
+      </c>
+      <c r="G17" s="18">
+        <f>B17+C17+D17+E17+F17</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="44.05" customHeight="1">
+      <c r="A18" t="s" s="16">
+        <v>28</v>
+      </c>
+      <c r="B18" s="17">
+        <v>2</v>
+      </c>
+      <c r="C18" s="18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="18">
+        <f>B18+C18+D18+E18+F18</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="32.05" customHeight="1">
+      <c r="A19" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" ht="44.05" customHeight="1">
+      <c r="A20" t="s" s="16">
+        <v>30</v>
+      </c>
+      <c r="B20" s="17">
+        <v>2</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>2</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="18">
+        <f>B20+C20+D20+E20+F20</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="32.05" customHeight="1">
+      <c r="A21" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" ht="32.05" customHeight="1">
+      <c r="A22" t="s" s="16">
+        <v>32</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="18">
+        <f>B22+C22+D22+E22+F22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="32.05" customHeight="1">
+      <c r="A23" t="s" s="16">
+        <v>33</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" ht="44.05" customHeight="1">
+      <c r="A24" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" ht="32.05" customHeight="1">
+      <c r="A25" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="B25" s="17">
+        <v>2</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <f>B25+C25+D25+E25+F25</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="32.05" customHeight="1">
+      <c r="A26" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="B26" s="17">
+        <v>2</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18">
+        <v>2</v>
+      </c>
+      <c r="G26" s="18">
+        <f>B26+C26+D26+E26+F26</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="32.05" customHeight="1">
+      <c r="A27" t="s" s="16">
+        <v>37</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" ht="32.05" customHeight="1">
+      <c r="A28" t="s" s="16">
+        <v>38</v>
+      </c>
+      <c r="B28" s="17">
+        <v>2</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2</v>
+      </c>
+      <c r="E28" s="18">
+        <v>2</v>
+      </c>
+      <c r="F28" s="18">
+        <v>2</v>
+      </c>
+      <c r="G28" s="18">
+        <f>B28+C28+D28+E28+F28</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="32.05" customHeight="1">
+      <c r="A29" t="s" s="16">
+        <v>39</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" ht="44.05" customHeight="1">
+      <c r="A30" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" ht="32.05" customHeight="1">
+      <c r="A31" t="s" s="16">
+        <v>41</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" ht="32.05" customHeight="1">
+      <c r="A32" t="s" s="16">
+        <v>42</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" ht="44.05" customHeight="1">
+      <c r="A33" t="s" s="16">
+        <v>43</v>
+      </c>
+      <c r="B33" s="17">
+        <v>2</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2</v>
+      </c>
+      <c r="F33" s="18">
+        <v>2</v>
+      </c>
+      <c r="G33" s="18">
+        <f>B33+C33+D33+E33+F33</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="32.05" customHeight="1">
+      <c r="A34" t="s" s="16">
+        <v>44</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" ht="32.05" customHeight="1">
+      <c r="A35" t="s" s="16">
+        <v>45</v>
+      </c>
+      <c r="B35" s="17">
+        <v>2</v>
+      </c>
+      <c r="C35" s="18">
+        <v>2</v>
+      </c>
+      <c r="D35" s="18">
+        <v>2</v>
+      </c>
+      <c r="E35" s="18">
+        <v>2</v>
+      </c>
+      <c r="F35" s="18">
+        <v>2</v>
+      </c>
+      <c r="G35" s="18">
+        <f>B35+C35+D35+E35+F35</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" ht="32.05" customHeight="1">
+      <c r="A36" t="s" s="16">
+        <v>46</v>
+      </c>
+      <c r="B36" s="17">
+        <v>2</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2</v>
+      </c>
+      <c r="E36" s="18">
+        <v>2</v>
+      </c>
+      <c r="F36" s="18">
+        <v>2</v>
+      </c>
+      <c r="G36" s="18">
+        <f>B36+C36+D36+E36+F36</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" ht="32.05" customHeight="1">
+      <c r="A37" t="s" s="16">
+        <v>47</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" ht="44.05" customHeight="1">
+      <c r="A38" t="s" s="16">
+        <v>48</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="18">
+        <f>B38+C38+D38+E38+F38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" ht="32.05" customHeight="1">
+      <c r="A39" t="s" s="16">
+        <v>49</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="18">
+        <f>B39+C39+D39+E39+F39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" ht="44.05" customHeight="1">
+      <c r="A40" t="s" s="16">
+        <v>50</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0</v>
+      </c>
+      <c r="C40" s="18">
+        <v>2</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2</v>
+      </c>
+      <c r="E40" s="18">
+        <v>1</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18">
+        <f>B40+C40+D40+E40+F40</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" ht="44.05" customHeight="1">
+      <c r="A41" t="s" s="16">
+        <v>51</v>
+      </c>
+      <c r="B41" s="17">
+        <v>2</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2</v>
+      </c>
+      <c r="E41" s="18">
+        <v>2</v>
+      </c>
+      <c r="F41" s="18">
+        <v>2</v>
+      </c>
+      <c r="G41" s="18">
+        <f>B41+C41+D41+E41+F41</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" ht="32.05" customHeight="1">
+      <c r="A42" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" ht="44.05" customHeight="1">
+      <c r="A43" t="s" s="16">
+        <v>53</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" ht="44.05" customHeight="1">
+      <c r="A44" t="s" s="16">
+        <v>54</v>
+      </c>
+      <c r="B44" s="17">
+        <v>2</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2</v>
+      </c>
+      <c r="D44" s="18">
+        <v>2</v>
+      </c>
+      <c r="E44" s="18">
+        <v>2</v>
+      </c>
+      <c r="F44" s="18">
+        <v>2</v>
+      </c>
+      <c r="G44" s="18">
+        <f>B44+C44+D44+E44+F44</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" ht="32.05" customHeight="1">
+      <c r="A45" t="s" s="16">
+        <v>55</v>
+      </c>
+      <c r="B45" s="17">
+        <v>2</v>
+      </c>
+      <c r="C45" s="18">
+        <v>2</v>
+      </c>
+      <c r="D45" s="18">
+        <v>2</v>
+      </c>
+      <c r="E45" s="18">
+        <v>2</v>
+      </c>
+      <c r="F45" s="18">
+        <v>2</v>
+      </c>
+      <c r="G45" s="18">
+        <f>B45+C45+D45+E45+F45</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" ht="44.05" customHeight="1">
+      <c r="A46" t="s" s="16">
+        <v>56</v>
+      </c>
+      <c r="B46" s="17">
+        <v>2</v>
+      </c>
+      <c r="C46" s="18">
+        <v>2</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2</v>
+      </c>
+      <c r="E46" s="18">
+        <v>2</v>
+      </c>
+      <c r="F46" s="18">
+        <v>2</v>
+      </c>
+      <c r="G46" s="18">
+        <f>B46+C46+D46+E46+F46</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" ht="32.05" customHeight="1">
+      <c r="A47" t="s" s="16">
+        <v>57</v>
+      </c>
+      <c r="B47" s="17">
+        <v>2</v>
+      </c>
+      <c r="C47" s="18">
+        <v>2</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2</v>
+      </c>
+      <c r="E47" s="18">
+        <v>2</v>
+      </c>
+      <c r="F47" s="18">
+        <v>2</v>
+      </c>
+      <c r="G47" s="18">
+        <f>B47+C47+D47+E47+F47</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" ht="32.05" customHeight="1">
+      <c r="A48" t="s" s="16">
+        <v>58</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" ht="44.05" customHeight="1">
+      <c r="A49" t="s" s="16">
+        <v>59</v>
+      </c>
+      <c r="B49" s="17">
+        <v>2</v>
+      </c>
+      <c r="C49" s="18">
+        <v>2</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2</v>
+      </c>
+      <c r="E49" s="18">
+        <v>2</v>
+      </c>
+      <c r="F49" s="18">
+        <v>2</v>
+      </c>
+      <c r="G49" s="18">
+        <f>B49+C49+D49+E49+F49</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" ht="32.05" customHeight="1">
+      <c r="A50" t="s" s="16">
+        <v>60</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" ht="32.05" customHeight="1">
+      <c r="A51" t="s" s="16">
+        <v>61</v>
+      </c>
+      <c r="B51" s="17">
+        <v>0</v>
+      </c>
+      <c r="C51" s="18">
+        <v>2</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2</v>
+      </c>
+      <c r="E51" s="18">
+        <v>2</v>
+      </c>
+      <c r="F51" s="18">
+        <v>2</v>
+      </c>
+      <c r="G51" s="18">
+        <f>B51+C51+D51+E51+F51</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" ht="44.05" customHeight="1">
+      <c r="A52" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="B52" s="17">
+        <v>2</v>
+      </c>
+      <c r="C52" s="18">
+        <v>2</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2</v>
+      </c>
+      <c r="E52" s="18">
+        <v>2</v>
+      </c>
+      <c r="F52" s="18">
+        <v>2</v>
+      </c>
+      <c r="G52" s="18">
+        <f>B52+C52+D52+E52+F52</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" ht="32.05" customHeight="1">
+      <c r="A53" t="s" s="16">
+        <v>63</v>
+      </c>
+      <c r="B53" s="17">
+        <v>2</v>
+      </c>
+      <c r="C53" s="18">
+        <v>2</v>
+      </c>
+      <c r="D53" s="18">
+        <v>2</v>
+      </c>
+      <c r="E53" s="18">
+        <v>2</v>
+      </c>
+      <c r="F53" s="18">
+        <v>2</v>
+      </c>
+      <c r="G53" s="18">
+        <f>B53+C53+D53+E53+F53</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" ht="32.05" customHeight="1">
+      <c r="A54" t="s" s="16">
+        <v>64</v>
+      </c>
+      <c r="B54" s="17">
+        <v>2</v>
+      </c>
+      <c r="C54" s="18">
+        <v>2</v>
+      </c>
+      <c r="D54" s="18">
+        <v>2</v>
+      </c>
+      <c r="E54" s="18">
+        <v>2</v>
+      </c>
+      <c r="F54" s="18">
+        <v>2</v>
+      </c>
+      <c r="G54" s="18">
+        <f>B54+C54+D54+E54+F54</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" ht="20.25" customHeight="1">
+      <c r="A55" s="21"/>
+      <c r="B55" t="s" s="22">
+        <v>65</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" ht="24.75" customHeight="1">
+      <c r="A56" t="s" s="23">
+        <v>66</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" ht="36.75" customHeight="1">
+      <c r="A57" t="s" s="23">
+        <v>67</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" t="s" s="23">
+        <v>68</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" ht="24.75" customHeight="1">
+      <c r="A59" t="s" s="23">
+        <v>69</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" t="s" s="23">
+        <v>70</v>
+      </c>
+      <c r="B60" s="17">
+        <v>2</v>
+      </c>
+      <c r="C60" s="18">
+        <v>2</v>
+      </c>
+      <c r="D60" s="18">
+        <v>2</v>
+      </c>
+      <c r="E60" s="18">
+        <v>2</v>
+      </c>
+      <c r="F60" s="18">
+        <v>2</v>
+      </c>
+      <c r="G60" s="18">
+        <f>B60+C60+D60+E60+F60</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" ht="24.75" customHeight="1">
+      <c r="A61" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="B61" s="17">
+        <v>2</v>
+      </c>
+      <c r="C61" s="18">
+        <v>2</v>
+      </c>
+      <c r="D61" s="18">
+        <v>2</v>
+      </c>
+      <c r="E61" s="18">
+        <v>2</v>
+      </c>
+      <c r="F61" s="18">
+        <v>2</v>
+      </c>
+      <c r="G61" s="18">
+        <f>B61+C61+D61+E61+F61</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" ht="24.75" customHeight="1">
+      <c r="A62" t="s" s="23">
+        <v>72</v>
+      </c>
+      <c r="B62" s="17">
+        <v>2</v>
+      </c>
+      <c r="C62" s="18">
+        <v>1</v>
+      </c>
+      <c r="D62" s="18">
+        <v>2</v>
+      </c>
+      <c r="E62" s="18">
+        <v>2</v>
+      </c>
+      <c r="F62" s="18">
+        <v>1</v>
+      </c>
+      <c r="G62" s="18">
+        <f>B62+C62+D62+E62+F62</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" ht="36.75" customHeight="1">
+      <c r="A63" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="18">
+        <f>B63+C63+D63+E63+F63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="36.75" customHeight="1">
+      <c r="A64" t="s" s="23">
+        <v>74</v>
+      </c>
+      <c r="B64" s="17">
+        <v>0</v>
+      </c>
+      <c r="C64" s="18">
+        <v>0</v>
+      </c>
+      <c r="D64" s="18">
+        <v>0</v>
+      </c>
+      <c r="E64" s="18">
+        <v>0</v>
+      </c>
+      <c r="F64" s="18">
+        <v>0</v>
+      </c>
+      <c r="G64" s="18">
+        <f>B64+C64+D64+E64+F64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" t="s" s="23">
+        <v>75</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="18">
+        <f>B65+C65+D65+E65+F65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" ht="36.75" customHeight="1">
+      <c r="A66" t="s" s="23">
+        <v>76</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" ht="24.75" customHeight="1">
+      <c r="A67" t="s" s="23">
+        <v>77</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="18">
+        <f>B67+C67+D67+E67+F67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" ht="36.75" customHeight="1">
+      <c r="A68" t="s" s="23">
+        <v>78</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" ht="36.75" customHeight="1">
+      <c r="A69" t="s" s="23">
+        <v>79</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" ht="36.75" customHeight="1">
+      <c r="A70" t="s" s="23">
+        <v>80</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" ht="24.75" customHeight="1">
+      <c r="A71" t="s" s="23">
+        <v>81</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" ht="36.75" customHeight="1">
+      <c r="A72" t="s" s="23">
+        <v>82</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" ht="36.75" customHeight="1">
+      <c r="A73" t="s" s="23">
+        <v>83</v>
+      </c>
+      <c r="B73" s="17">
+        <v>2</v>
+      </c>
+      <c r="C73" s="18">
+        <v>2</v>
+      </c>
+      <c r="D73" s="18">
+        <v>2</v>
+      </c>
+      <c r="E73" s="18">
+        <v>2</v>
+      </c>
+      <c r="F73" s="18">
+        <v>2</v>
+      </c>
+      <c r="G73" s="18">
+        <f>B73+C73+D73+E73+F73</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" ht="24.75" customHeight="1">
+      <c r="A74" t="s" s="23">
+        <v>84</v>
+      </c>
+      <c r="B74" s="17">
+        <v>2</v>
+      </c>
+      <c r="C74" s="18">
+        <v>1</v>
+      </c>
+      <c r="D74" s="18">
+        <v>2</v>
+      </c>
+      <c r="E74" s="18">
+        <v>2</v>
+      </c>
+      <c r="F74" s="18">
+        <v>2</v>
+      </c>
+      <c r="G74" s="18">
+        <f>B74+C74+D74+E74+F74</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" ht="36.75" customHeight="1">
+      <c r="A75" t="s" s="23">
+        <v>85</v>
+      </c>
+      <c r="B75" s="17">
+        <v>2</v>
+      </c>
+      <c r="C75" s="18">
+        <v>2</v>
+      </c>
+      <c r="D75" s="18">
+        <v>2</v>
+      </c>
+      <c r="E75" s="18">
+        <v>2</v>
+      </c>
+      <c r="F75" s="18">
+        <v>2</v>
+      </c>
+      <c r="G75" s="18">
+        <f>B75+C75+D75+E75+F75</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" ht="24.75" customHeight="1">
+      <c r="A76" t="s" s="23">
+        <v>86</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" ht="36.75" customHeight="1">
+      <c r="A77" t="s" s="23">
+        <v>87</v>
+      </c>
+      <c r="B77" s="17">
+        <v>2</v>
+      </c>
+      <c r="C77" s="18">
+        <v>2</v>
+      </c>
+      <c r="D77" s="18">
+        <v>2</v>
+      </c>
+      <c r="E77" s="18">
+        <v>2</v>
+      </c>
+      <c r="F77" s="18">
+        <v>2</v>
+      </c>
+      <c r="G77" s="18">
+        <f>B77+C77+D77+E77+F77</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" ht="36.75" customHeight="1">
+      <c r="A78" t="s" s="23">
+        <v>88</v>
+      </c>
+      <c r="B78" s="17">
+        <v>2</v>
+      </c>
+      <c r="C78" s="18">
+        <v>2</v>
+      </c>
+      <c r="D78" s="18">
+        <v>2</v>
+      </c>
+      <c r="E78" s="18">
+        <v>2</v>
+      </c>
+      <c r="F78" s="18">
+        <v>2</v>
+      </c>
+      <c r="G78" s="18">
+        <f>B78+C78+D78+E78+F78</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" ht="24.75" customHeight="1">
+      <c r="A79" t="s" s="23">
+        <v>89</v>
+      </c>
+      <c r="B79" s="17">
+        <v>2</v>
+      </c>
+      <c r="C79" s="18">
+        <v>2</v>
+      </c>
+      <c r="D79" s="18">
+        <v>2</v>
+      </c>
+      <c r="E79" s="18">
+        <v>2</v>
+      </c>
+      <c r="F79" s="18">
+        <v>2</v>
+      </c>
+      <c r="G79" s="18">
+        <f>B79+C79+D79+E79+F79</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" t="s" s="23">
+        <v>90</v>
+      </c>
+      <c r="B80" s="17">
+        <v>2</v>
+      </c>
+      <c r="C80" s="18">
+        <v>2</v>
+      </c>
+      <c r="D80" s="18">
+        <v>2</v>
+      </c>
+      <c r="E80" s="18">
+        <v>2</v>
+      </c>
+      <c r="F80" s="18">
+        <v>2</v>
+      </c>
+      <c r="G80" s="18">
+        <f>B80+C80+D80+E80+F80</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" ht="36.75" customHeight="1">
+      <c r="A81" t="s" s="23">
+        <v>103</v>
+      </c>
+      <c r="B81" s="17">
+        <v>2</v>
+      </c>
+      <c r="C81" s="18">
+        <v>2</v>
+      </c>
+      <c r="D81" s="18">
+        <v>2</v>
+      </c>
+      <c r="E81" s="18">
+        <v>2</v>
+      </c>
+      <c r="F81" s="18">
+        <v>2</v>
+      </c>
+      <c r="G81" s="18">
+        <f>B81+C81+D81+E81+F81</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" ht="20.45" customHeight="1">
+      <c r="A82" s="24"/>
+      <c r="B82" t="s" s="25">
+        <v>91</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" ht="36.75" customHeight="1">
+      <c r="A83" t="s" s="23">
+        <v>92</v>
+      </c>
+      <c r="B83" s="17">
+        <v>2</v>
+      </c>
+      <c r="C83" s="18">
+        <v>2</v>
+      </c>
+      <c r="D83" s="18">
+        <v>2</v>
+      </c>
+      <c r="E83" s="18">
+        <v>2</v>
+      </c>
+      <c r="F83" s="18">
+        <v>2</v>
+      </c>
+      <c r="G83" s="18">
+        <f>B83+C83+D83+E83+F83</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" ht="36.75" customHeight="1">
+      <c r="A84" t="s" s="23">
+        <v>93</v>
+      </c>
+      <c r="B84" s="17">
+        <v>2</v>
+      </c>
+      <c r="C84" s="18">
+        <v>2</v>
+      </c>
+      <c r="D84" s="18">
+        <v>2</v>
+      </c>
+      <c r="E84" s="18">
+        <v>2</v>
+      </c>
+      <c r="F84" s="18">
+        <v>2</v>
+      </c>
+      <c r="G84" s="18">
+        <f>B84+C84+D84+E84+F84</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" ht="20.45" customHeight="1">
+      <c r="A85" s="24"/>
+      <c r="B85" t="s" s="25">
+        <v>94</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" ht="36.75" customHeight="1">
+      <c r="A86" t="s" s="23">
+        <v>95</v>
+      </c>
+      <c r="B86" s="17">
+        <v>2</v>
+      </c>
+      <c r="C86" s="18">
+        <v>2</v>
+      </c>
+      <c r="D86" s="18">
+        <v>2</v>
+      </c>
+      <c r="E86" s="18">
+        <v>2</v>
+      </c>
+      <c r="F86" s="18">
+        <v>2</v>
+      </c>
+      <c r="G86" s="18">
+        <f>B86+C86+D86+E86+F86</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" ht="36.75" customHeight="1">
+      <c r="A87" t="s" s="23">
+        <v>96</v>
+      </c>
+      <c r="B87" s="17">
+        <v>2</v>
+      </c>
+      <c r="C87" s="18">
+        <v>2</v>
+      </c>
+      <c r="D87" s="18">
+        <v>2</v>
+      </c>
+      <c r="E87" s="18">
+        <v>2</v>
+      </c>
+      <c r="F87" s="18">
+        <v>2</v>
+      </c>
+      <c r="G87" s="18">
+        <f>B87+C87+D87+E87+F87</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" ht="20.45" customHeight="1">
+      <c r="A88" t="s" s="23">
+        <v>104</v>
+      </c>
+      <c r="B88" s="17">
+        <v>2</v>
+      </c>
+      <c r="C88" s="18">
+        <v>2</v>
+      </c>
+      <c r="D88" s="18">
+        <v>2</v>
+      </c>
+      <c r="E88" s="18">
+        <v>2</v>
+      </c>
+      <c r="F88" s="18">
+        <v>2</v>
+      </c>
+      <c r="G88" s="18">
+        <f>B88+C88+D88+E88+F88</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" ht="24.75" customHeight="1">
+      <c r="A89" t="s" s="23">
+        <v>97</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" ht="20.45" customHeight="1">
+      <c r="A90" t="s" s="23">
+        <v>98</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" ht="24.75" customHeight="1">
+      <c r="A91" t="s" s="23">
+        <v>99</v>
+      </c>
+      <c r="B91" s="17">
+        <v>2</v>
+      </c>
+      <c r="C91" s="18">
+        <v>2</v>
+      </c>
+      <c r="D91" s="18">
+        <v>2</v>
+      </c>
+      <c r="E91" s="18">
+        <v>2</v>
+      </c>
+      <c r="F91" s="18">
+        <v>2</v>
+      </c>
+      <c r="G91" s="18">
+        <f>B91+C91+D91+E91+F91</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" ht="24.75" customHeight="1">
+      <c r="A92" t="s" s="23">
+        <v>108</v>
+      </c>
+      <c r="B92" s="17">
+        <v>2</v>
+      </c>
+      <c r="C92" s="18">
+        <v>2</v>
+      </c>
+      <c r="D92" s="18">
+        <v>2</v>
+      </c>
+      <c r="E92" s="18">
+        <v>2</v>
+      </c>
+      <c r="F92" s="18">
+        <v>2</v>
+      </c>
+      <c r="G92" s="18">
+        <f>B92+C92+D92+E92+F92</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" ht="20.45" customHeight="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="18">
+        <f>B93+C93+D93+E93+F93</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/оценки.xlsx
+++ b/оценки.xlsx
@@ -3722,25 +3722,12 @@
       <c r="A13" t="s" s="16">
         <v>23</v>
       </c>
-      <c r="B13" s="17">
-        <v>2</v>
-      </c>
-      <c r="C13" s="18">
-        <v>2</v>
-      </c>
-      <c r="D13" s="18">
-        <v>2</v>
-      </c>
-      <c r="E13" s="18">
-        <v>2</v>
-      </c>
-      <c r="F13" s="18">
-        <v>2</v>
-      </c>
-      <c r="G13" s="18">
-        <f>B13+C13+D13+E13+F13</f>
-        <v>10</v>
-      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" ht="32.05" customHeight="1">
       <c r="A14" t="s" s="16">

--- a/оценки.xlsx
+++ b/оценки.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Sheet 1 - Quiz 1" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet 2 - Quiz 3" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet 3 - Quiz 4" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet 4" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -342,6 +343,12 @@
   </si>
   <si>
     <t>Тульчинский Эдуард</t>
+  </si>
+  <si>
+    <t>Sheet 4</t>
+  </si>
+  <si>
+    <t>Table 1</t>
   </si>
 </sst>
 </file>
@@ -567,7 +574,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -659,6 +666,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1821,6 +1831,22 @@
         <v>107</v>
       </c>
     </row>
+    <row r="15">
+      <c r="B15" t="s" s="3">
+        <v>109</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="4"/>
+      <c r="C16" t="s" s="4">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s" s="5">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -1829,6 +1855,7 @@
     <hyperlink ref="D10" location="'Sheet 1 - Quiz 1'!R2C1" tooltip="" display="Sheet 1 - Quiz 1"/>
     <hyperlink ref="D12" location="'Sheet 2 - Quiz 3'!R2C1" tooltip="" display="Sheet 2 - Quiz 3"/>
     <hyperlink ref="D14" location="'Sheet 3 - Quiz 4'!R2C1" tooltip="" display="Sheet 3 - Quiz 4"/>
+    <hyperlink ref="D16" location="'Sheet 4'!R2C1" tooltip="" display="Sheet 4"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -6793,4 +6820,1680 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:G93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="48.6328" style="32" customWidth="1"/>
+    <col min="2" max="7" width="16.3516" style="32" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>110</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="27">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27">
+        <v>3</v>
+      </c>
+      <c r="E2" s="27">
+        <v>4</v>
+      </c>
+      <c r="F2" s="27">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" t="s" s="30">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18">
+        <f>SUM(B5:F5)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2</v>
+      </c>
+      <c r="G6" s="18">
+        <f>SUM(B6:F6)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18">
+        <v>2</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18">
+        <f>SUM(B7:F7)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="18">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18">
+        <f>SUM(B9:F9)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2</v>
+      </c>
+      <c r="G14" s="18">
+        <f>SUM(B14:F14)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="B15" s="17">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18">
+        <f>SUM(B15:F15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>2</v>
+      </c>
+      <c r="G16" s="18">
+        <f>SUM(B16:F16)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="B17" s="17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2</v>
+      </c>
+      <c r="G17" s="18">
+        <f>SUM(B17:F17)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="16">
+        <v>28</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="16">
+        <v>30</v>
+      </c>
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>2</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="18">
+        <f>SUM(B20:F20)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="16">
+        <v>32</v>
+      </c>
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2</v>
+      </c>
+      <c r="E22" s="18">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18">
+        <v>2</v>
+      </c>
+      <c r="G22" s="18">
+        <f>SUM(B22:F22)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="16">
+        <v>33</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18">
+        <v>2</v>
+      </c>
+      <c r="D24" s="18">
+        <v>2</v>
+      </c>
+      <c r="E24" s="18">
+        <v>2</v>
+      </c>
+      <c r="F24" s="18">
+        <v>2</v>
+      </c>
+      <c r="G24" s="18">
+        <f>SUM(B24:F24)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="B25" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18">
+        <v>2</v>
+      </c>
+      <c r="G25" s="18">
+        <f>SUM(B25:F25)</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18">
+        <v>2</v>
+      </c>
+      <c r="G26" s="18">
+        <f>SUM(B26:F26)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="16">
+        <v>37</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="18">
+        <v>2</v>
+      </c>
+      <c r="E27" s="18">
+        <v>2</v>
+      </c>
+      <c r="F27" s="18">
+        <v>2</v>
+      </c>
+      <c r="G27" s="18">
+        <f>SUM(B27:F27)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="16">
+        <v>38</v>
+      </c>
+      <c r="B28" s="17">
+        <v>2</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2</v>
+      </c>
+      <c r="D28" s="18">
+        <v>2</v>
+      </c>
+      <c r="E28" s="18">
+        <v>2</v>
+      </c>
+      <c r="F28" s="18">
+        <v>2</v>
+      </c>
+      <c r="G28" s="18">
+        <f>SUM(B28:F28)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="16">
+        <v>39</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="16">
+        <v>41</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="16">
+        <v>42</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="16">
+        <v>43</v>
+      </c>
+      <c r="B33" s="17">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2</v>
+      </c>
+      <c r="F33" s="18">
+        <v>2</v>
+      </c>
+      <c r="G33" s="18">
+        <f>SUM(B33:F33)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="16">
+        <v>44</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="16">
+        <v>45</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+      <c r="C35" s="18">
+        <v>2</v>
+      </c>
+      <c r="D35" s="18">
+        <v>2</v>
+      </c>
+      <c r="E35" s="18">
+        <v>2</v>
+      </c>
+      <c r="F35" s="18">
+        <v>2</v>
+      </c>
+      <c r="G35" s="18">
+        <f>SUM(B35:F35)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="16">
+        <v>46</v>
+      </c>
+      <c r="B36" s="17">
+        <v>1</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2</v>
+      </c>
+      <c r="E36" s="18">
+        <v>2</v>
+      </c>
+      <c r="F36" s="18">
+        <v>2</v>
+      </c>
+      <c r="G36" s="18">
+        <f>SUM(B36:F36)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="16">
+        <v>47</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="16">
+        <v>48</v>
+      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="16">
+        <v>49</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="16">
+        <v>50</v>
+      </c>
+      <c r="B40" s="17">
+        <v>0</v>
+      </c>
+      <c r="C40" s="18">
+        <v>2</v>
+      </c>
+      <c r="D40" s="18">
+        <v>2</v>
+      </c>
+      <c r="E40" s="18">
+        <v>2</v>
+      </c>
+      <c r="F40" s="18">
+        <v>2</v>
+      </c>
+      <c r="G40" s="18">
+        <f>SUM(B40:F40)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="16">
+        <v>51</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2</v>
+      </c>
+      <c r="E41" s="18">
+        <v>2</v>
+      </c>
+      <c r="F41" s="18">
+        <v>2</v>
+      </c>
+      <c r="G41" s="18">
+        <f>SUM(B41:F41)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" t="s" s="16">
+        <v>53</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" t="s" s="16">
+        <v>54</v>
+      </c>
+      <c r="B44" s="17">
+        <v>1</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2</v>
+      </c>
+      <c r="D44" s="18">
+        <v>2</v>
+      </c>
+      <c r="E44" s="18">
+        <v>2</v>
+      </c>
+      <c r="F44" s="18">
+        <v>2</v>
+      </c>
+      <c r="G44" s="18">
+        <f>SUM(B44:F44)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" t="s" s="16">
+        <v>55</v>
+      </c>
+      <c r="B45" s="17">
+        <v>1</v>
+      </c>
+      <c r="C45" s="18">
+        <v>2</v>
+      </c>
+      <c r="D45" s="18">
+        <v>2</v>
+      </c>
+      <c r="E45" s="18">
+        <v>2</v>
+      </c>
+      <c r="F45" s="18">
+        <v>2</v>
+      </c>
+      <c r="G45" s="18">
+        <f>SUM(B45:F45)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" t="s" s="16">
+        <v>56</v>
+      </c>
+      <c r="B46" s="17">
+        <v>1</v>
+      </c>
+      <c r="C46" s="18">
+        <v>2</v>
+      </c>
+      <c r="D46" s="18">
+        <v>2</v>
+      </c>
+      <c r="E46" s="18">
+        <v>2</v>
+      </c>
+      <c r="F46" s="18">
+        <v>2</v>
+      </c>
+      <c r="G46" s="18">
+        <f>SUM(B46:F46)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" t="s" s="16">
+        <v>57</v>
+      </c>
+      <c r="B47" s="17">
+        <v>1</v>
+      </c>
+      <c r="C47" s="18">
+        <v>2</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2</v>
+      </c>
+      <c r="E47" s="18">
+        <v>2</v>
+      </c>
+      <c r="F47" s="18">
+        <v>2</v>
+      </c>
+      <c r="G47" s="18">
+        <f>SUM(B47:F47)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" t="s" s="16">
+        <v>58</v>
+      </c>
+      <c r="B48" s="17">
+        <v>1</v>
+      </c>
+      <c r="C48" s="18">
+        <v>2</v>
+      </c>
+      <c r="D48" s="18">
+        <v>2</v>
+      </c>
+      <c r="E48" s="18">
+        <v>2</v>
+      </c>
+      <c r="F48" s="18">
+        <v>0</v>
+      </c>
+      <c r="G48" s="18">
+        <f>SUM(B48:F48)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" t="s" s="16">
+        <v>59</v>
+      </c>
+      <c r="B49" s="17">
+        <v>1</v>
+      </c>
+      <c r="C49" s="18">
+        <v>2</v>
+      </c>
+      <c r="D49" s="18">
+        <v>2</v>
+      </c>
+      <c r="E49" s="18">
+        <v>2</v>
+      </c>
+      <c r="F49" s="18">
+        <v>2</v>
+      </c>
+      <c r="G49" s="18">
+        <f>SUM(B49:F49)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" t="s" s="16">
+        <v>60</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" t="s" s="16">
+        <v>61</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" t="s" s="16">
+        <v>63</v>
+      </c>
+      <c r="B53" s="17">
+        <v>1</v>
+      </c>
+      <c r="C53" s="18">
+        <v>2</v>
+      </c>
+      <c r="D53" s="18">
+        <v>2</v>
+      </c>
+      <c r="E53" s="18">
+        <v>2</v>
+      </c>
+      <c r="F53" s="18">
+        <v>2</v>
+      </c>
+      <c r="G53" s="18">
+        <f>SUM(B53:F53)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" t="s" s="16">
+        <v>64</v>
+      </c>
+      <c r="B54" s="17">
+        <v>1</v>
+      </c>
+      <c r="C54" s="18">
+        <v>2</v>
+      </c>
+      <c r="D54" s="18">
+        <v>2</v>
+      </c>
+      <c r="E54" s="18">
+        <v>2</v>
+      </c>
+      <c r="F54" s="18">
+        <v>2</v>
+      </c>
+      <c r="G54" s="18">
+        <f>SUM(B54:F54)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" ht="20.25" customHeight="1">
+      <c r="A55" s="21"/>
+      <c r="B55" t="s" s="22">
+        <v>65</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" ht="20.45" customHeight="1">
+      <c r="A56" t="s" s="23">
+        <v>66</v>
+      </c>
+      <c r="B56" s="17">
+        <v>1</v>
+      </c>
+      <c r="C56" s="18">
+        <v>2</v>
+      </c>
+      <c r="D56" s="18">
+        <v>2</v>
+      </c>
+      <c r="E56" s="18">
+        <v>2</v>
+      </c>
+      <c r="F56" s="18">
+        <v>2</v>
+      </c>
+      <c r="G56" s="18">
+        <f>SUM(B56:F56)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" ht="20.45" customHeight="1">
+      <c r="A57" t="s" s="23">
+        <v>67</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" ht="20.45" customHeight="1">
+      <c r="A58" t="s" s="23">
+        <v>68</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" ht="20.45" customHeight="1">
+      <c r="A59" t="s" s="23">
+        <v>69</v>
+      </c>
+      <c r="B59" s="17">
+        <v>1</v>
+      </c>
+      <c r="C59" s="18">
+        <v>2</v>
+      </c>
+      <c r="D59" s="18">
+        <v>2</v>
+      </c>
+      <c r="E59" s="18">
+        <v>2</v>
+      </c>
+      <c r="F59" s="18">
+        <v>2</v>
+      </c>
+      <c r="G59" s="18">
+        <f>SUM(B59:F59)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" ht="20.45" customHeight="1">
+      <c r="A60" t="s" s="23">
+        <v>70</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" ht="20.45" customHeight="1">
+      <c r="A61" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" ht="20.45" customHeight="1">
+      <c r="A62" t="s" s="23">
+        <v>72</v>
+      </c>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" ht="20.45" customHeight="1">
+      <c r="A63" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="B63" s="19"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" ht="20.45" customHeight="1">
+      <c r="A64" t="s" s="23">
+        <v>74</v>
+      </c>
+      <c r="B64" s="19"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" ht="20.45" customHeight="1">
+      <c r="A65" t="s" s="23">
+        <v>75</v>
+      </c>
+      <c r="B65" s="17">
+        <v>1</v>
+      </c>
+      <c r="C65" s="18">
+        <v>2</v>
+      </c>
+      <c r="D65" s="18">
+        <v>2</v>
+      </c>
+      <c r="E65" s="18">
+        <v>2</v>
+      </c>
+      <c r="F65" s="18">
+        <v>2</v>
+      </c>
+      <c r="G65" s="18">
+        <f>SUM(B65:F65)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" ht="20.45" customHeight="1">
+      <c r="A66" t="s" s="23">
+        <v>76</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" ht="20.45" customHeight="1">
+      <c r="A67" t="s" s="23">
+        <v>77</v>
+      </c>
+      <c r="B67" s="17">
+        <v>1</v>
+      </c>
+      <c r="C67" s="18">
+        <v>2</v>
+      </c>
+      <c r="D67" s="18">
+        <v>2</v>
+      </c>
+      <c r="E67" s="18">
+        <v>2</v>
+      </c>
+      <c r="F67" s="18">
+        <v>2</v>
+      </c>
+      <c r="G67" s="18">
+        <f>SUM(B67:F67)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" ht="20.45" customHeight="1">
+      <c r="A68" t="s" s="23">
+        <v>78</v>
+      </c>
+      <c r="B68" s="17">
+        <v>1</v>
+      </c>
+      <c r="C68" s="18">
+        <v>2</v>
+      </c>
+      <c r="D68" s="18">
+        <v>2</v>
+      </c>
+      <c r="E68" s="18">
+        <v>2</v>
+      </c>
+      <c r="F68" s="18">
+        <v>2</v>
+      </c>
+      <c r="G68" s="18">
+        <f>SUM(B68:F68)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" ht="20.45" customHeight="1">
+      <c r="A69" t="s" s="23">
+        <v>79</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" ht="20.45" customHeight="1">
+      <c r="A70" t="s" s="23">
+        <v>80</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" ht="20.45" customHeight="1">
+      <c r="A71" t="s" s="23">
+        <v>81</v>
+      </c>
+      <c r="B71" s="17">
+        <v>1</v>
+      </c>
+      <c r="C71" s="18">
+        <v>2</v>
+      </c>
+      <c r="D71" s="18">
+        <v>2</v>
+      </c>
+      <c r="E71" s="18">
+        <v>2</v>
+      </c>
+      <c r="F71" s="18">
+        <v>2</v>
+      </c>
+      <c r="G71" s="18">
+        <f>SUM(B71:F71)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" ht="20.45" customHeight="1">
+      <c r="A72" t="s" s="23">
+        <v>82</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" ht="20.45" customHeight="1">
+      <c r="A73" t="s" s="23">
+        <v>83</v>
+      </c>
+      <c r="B73" s="17">
+        <v>1</v>
+      </c>
+      <c r="C73" s="18">
+        <v>2</v>
+      </c>
+      <c r="D73" s="18">
+        <v>2</v>
+      </c>
+      <c r="E73" s="18">
+        <v>2</v>
+      </c>
+      <c r="F73" s="18">
+        <v>2</v>
+      </c>
+      <c r="G73" s="18">
+        <f>SUM(B73:F73)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" ht="20.45" customHeight="1">
+      <c r="A74" t="s" s="23">
+        <v>84</v>
+      </c>
+      <c r="B74" s="17">
+        <v>1</v>
+      </c>
+      <c r="C74" s="18">
+        <v>2</v>
+      </c>
+      <c r="D74" s="18">
+        <v>2</v>
+      </c>
+      <c r="E74" s="18">
+        <v>2</v>
+      </c>
+      <c r="F74" s="18">
+        <v>2</v>
+      </c>
+      <c r="G74" s="18">
+        <f>SUM(B74:F74)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" ht="20.45" customHeight="1">
+      <c r="A75" t="s" s="23">
+        <v>85</v>
+      </c>
+      <c r="B75" s="17">
+        <v>1</v>
+      </c>
+      <c r="C75" s="18">
+        <v>1</v>
+      </c>
+      <c r="D75" s="18">
+        <v>2</v>
+      </c>
+      <c r="E75" s="18">
+        <v>2</v>
+      </c>
+      <c r="F75" s="18">
+        <v>2</v>
+      </c>
+      <c r="G75" s="18">
+        <f>SUM(B75:F75)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" ht="20.45" customHeight="1">
+      <c r="A76" t="s" s="23">
+        <v>86</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" ht="20.45" customHeight="1">
+      <c r="A77" t="s" s="23">
+        <v>87</v>
+      </c>
+      <c r="B77" s="19"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" ht="20.45" customHeight="1">
+      <c r="A78" t="s" s="23">
+        <v>88</v>
+      </c>
+      <c r="B78" s="17">
+        <v>1</v>
+      </c>
+      <c r="C78" s="18">
+        <v>1</v>
+      </c>
+      <c r="D78" s="18">
+        <v>2</v>
+      </c>
+      <c r="E78" s="18">
+        <v>2</v>
+      </c>
+      <c r="F78" s="18">
+        <v>2</v>
+      </c>
+      <c r="G78" s="18">
+        <f>SUM(B78:F78)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" ht="20.45" customHeight="1">
+      <c r="A79" t="s" s="23">
+        <v>89</v>
+      </c>
+      <c r="B79" s="17">
+        <v>1</v>
+      </c>
+      <c r="C79" s="18">
+        <v>2</v>
+      </c>
+      <c r="D79" s="18">
+        <v>2</v>
+      </c>
+      <c r="E79" s="18">
+        <v>2</v>
+      </c>
+      <c r="F79" s="18">
+        <v>2</v>
+      </c>
+      <c r="G79" s="18">
+        <f>SUM(B79:F79)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" ht="20.45" customHeight="1">
+      <c r="A80" t="s" s="23">
+        <v>90</v>
+      </c>
+      <c r="B80" s="17">
+        <v>1</v>
+      </c>
+      <c r="C80" s="18">
+        <v>2</v>
+      </c>
+      <c r="D80" s="18">
+        <v>2</v>
+      </c>
+      <c r="E80" s="18">
+        <v>2</v>
+      </c>
+      <c r="F80" s="18">
+        <v>2</v>
+      </c>
+      <c r="G80" s="18">
+        <f>SUM(B80:F80)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" ht="20.45" customHeight="1">
+      <c r="A81" t="s" s="23">
+        <v>103</v>
+      </c>
+      <c r="B81" s="17">
+        <v>1</v>
+      </c>
+      <c r="C81" s="18">
+        <v>2</v>
+      </c>
+      <c r="D81" s="18">
+        <v>2</v>
+      </c>
+      <c r="E81" s="18">
+        <v>2</v>
+      </c>
+      <c r="F81" s="18">
+        <v>2</v>
+      </c>
+      <c r="G81" s="18">
+        <f>SUM(B81:F81)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" ht="20.45" customHeight="1">
+      <c r="A82" s="24"/>
+      <c r="B82" t="s" s="25">
+        <v>91</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" ht="20.45" customHeight="1">
+      <c r="A83" t="s" s="23">
+        <v>92</v>
+      </c>
+      <c r="B83" s="17">
+        <v>1</v>
+      </c>
+      <c r="C83" s="18">
+        <v>2</v>
+      </c>
+      <c r="D83" s="18">
+        <v>2</v>
+      </c>
+      <c r="E83" s="18">
+        <v>2</v>
+      </c>
+      <c r="F83" s="18">
+        <v>2</v>
+      </c>
+      <c r="G83" s="18">
+        <f>SUM(B83:F83)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" ht="20.45" customHeight="1">
+      <c r="A84" t="s" s="23">
+        <v>93</v>
+      </c>
+      <c r="B84" s="17">
+        <v>1</v>
+      </c>
+      <c r="C84" s="18">
+        <v>2</v>
+      </c>
+      <c r="D84" s="18">
+        <v>2</v>
+      </c>
+      <c r="E84" s="18">
+        <v>2</v>
+      </c>
+      <c r="F84" s="18">
+        <v>2</v>
+      </c>
+      <c r="G84" s="18">
+        <f>SUM(B84:F84)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" ht="20.45" customHeight="1">
+      <c r="A85" s="24"/>
+      <c r="B85" t="s" s="25">
+        <v>94</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" ht="20.45" customHeight="1">
+      <c r="A86" t="s" s="23">
+        <v>95</v>
+      </c>
+      <c r="B86" s="17">
+        <v>1</v>
+      </c>
+      <c r="C86" s="18">
+        <v>2</v>
+      </c>
+      <c r="D86" s="18">
+        <v>2</v>
+      </c>
+      <c r="E86" s="18">
+        <v>2</v>
+      </c>
+      <c r="F86" s="18">
+        <v>2</v>
+      </c>
+      <c r="G86" s="18">
+        <f>SUM(B86:F86)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" ht="20.45" customHeight="1">
+      <c r="A87" t="s" s="23">
+        <v>96</v>
+      </c>
+      <c r="B87" s="17">
+        <v>0</v>
+      </c>
+      <c r="C87" s="18">
+        <v>2</v>
+      </c>
+      <c r="D87" s="18">
+        <v>2</v>
+      </c>
+      <c r="E87" s="18">
+        <v>2</v>
+      </c>
+      <c r="F87" s="18">
+        <v>2</v>
+      </c>
+      <c r="G87" s="18">
+        <f>SUM(B87:F87)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" ht="20.45" customHeight="1">
+      <c r="A88" t="s" s="23">
+        <v>104</v>
+      </c>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+    </row>
+    <row r="89" ht="20.45" customHeight="1">
+      <c r="A89" t="s" s="23">
+        <v>97</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" ht="20.45" customHeight="1">
+      <c r="A90" t="s" s="23">
+        <v>98</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" ht="20.45" customHeight="1">
+      <c r="A91" t="s" s="23">
+        <v>99</v>
+      </c>
+      <c r="B91" s="17">
+        <v>1</v>
+      </c>
+      <c r="C91" s="18">
+        <v>2</v>
+      </c>
+      <c r="D91" s="18">
+        <v>2</v>
+      </c>
+      <c r="E91" s="18">
+        <v>2</v>
+      </c>
+      <c r="F91" s="18">
+        <v>2</v>
+      </c>
+      <c r="G91" s="18">
+        <f>SUM(B91:F91)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" ht="20.45" customHeight="1">
+      <c r="A92" t="s" s="23">
+        <v>108</v>
+      </c>
+      <c r="B92" s="17">
+        <v>1</v>
+      </c>
+      <c r="C92" s="18">
+        <v>2</v>
+      </c>
+      <c r="D92" s="18">
+        <v>2</v>
+      </c>
+      <c r="E92" s="18">
+        <v>2</v>
+      </c>
+      <c r="F92" s="18">
+        <v>0</v>
+      </c>
+      <c r="G92" s="18">
+        <f>SUM(B92:F92)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" ht="20.45" customHeight="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B85:G85"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/оценки.xlsx
+++ b/оценки.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Sheet 1 - Quiz 1" sheetId="2" r:id="rId5"/>
     <sheet name="Sheet 2 - Quiz 3" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet 3 - Quiz 4" sheetId="4" r:id="rId7"/>
-    <sheet name="Sheet 4" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet 4 - Quiz 5" sheetId="5" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -348,7 +348,10 @@
     <t>Sheet 4</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <t>Quiz 5</t>
+  </si>
+  <si>
+    <t>Sheet 4 - Quiz 5</t>
   </si>
 </sst>
 </file>
@@ -1844,7 +1847,7 @@
         <v>110</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1858,7 @@
     <hyperlink ref="D10" location="'Sheet 1 - Quiz 1'!R2C1" tooltip="" display="Sheet 1 - Quiz 1"/>
     <hyperlink ref="D12" location="'Sheet 2 - Quiz 3'!R2C1" tooltip="" display="Sheet 2 - Quiz 3"/>
     <hyperlink ref="D14" location="'Sheet 3 - Quiz 4'!R2C1" tooltip="" display="Sheet 3 - Quiz 4"/>
-    <hyperlink ref="D16" location="'Sheet 4'!R2C1" tooltip="" display="Sheet 4"/>
+    <hyperlink ref="D16" location="'Sheet 4 - Quiz 5'!R2C1" tooltip="" display="Sheet 4 - Quiz 5"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -2804,25 +2807,12 @@
       <c r="A52" t="s" s="16">
         <v>62</v>
       </c>
-      <c r="B52" s="17">
-        <v>2</v>
-      </c>
-      <c r="C52" s="18">
-        <v>2</v>
-      </c>
-      <c r="D52" s="18">
-        <v>2</v>
-      </c>
-      <c r="E52" s="18">
-        <v>2</v>
-      </c>
-      <c r="F52" s="18">
-        <v>2</v>
-      </c>
-      <c r="G52" s="18">
-        <f>B52+C52+D52+E52+F52</f>
-        <v>10</v>
-      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="16">
@@ -6912,7 +6902,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="18">
         <v>2</v>
@@ -6928,7 +6918,7 @@
       </c>
       <c r="G5" s="18">
         <f>SUM(B5:F5)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
@@ -6936,7 +6926,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="18">
         <v>2</v>
@@ -6952,7 +6942,7 @@
       </c>
       <c r="G6" s="18">
         <f>SUM(B6:F6)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
@@ -6995,7 +6985,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="18">
         <v>2</v>
@@ -7011,7 +7001,7 @@
       </c>
       <c r="G9" s="18">
         <f>SUM(B9:F9)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
@@ -7063,7 +7053,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="18">
         <v>2</v>
@@ -7079,7 +7069,7 @@
       </c>
       <c r="G14" s="18">
         <f>SUM(B14:F14)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
@@ -7087,7 +7077,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="18">
         <v>2</v>
@@ -7103,7 +7093,7 @@
       </c>
       <c r="G15" s="18">
         <f>SUM(B15:F15)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
@@ -7111,7 +7101,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="18">
         <v>2</v>
@@ -7127,7 +7117,7 @@
       </c>
       <c r="G16" s="18">
         <f>SUM(B16:F16)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
@@ -7135,7 +7125,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="18">
         <v>1.5</v>
@@ -7151,7 +7141,7 @@
       </c>
       <c r="G17" s="18">
         <f>SUM(B17:F17)</f>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
@@ -7181,7 +7171,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="18">
         <v>2</v>
@@ -7197,7 +7187,7 @@
       </c>
       <c r="G20" s="18">
         <f>SUM(B20:F20)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
@@ -7216,7 +7206,7 @@
         <v>32</v>
       </c>
       <c r="B22" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="18">
         <v>0</v>
@@ -7232,7 +7222,7 @@
       </c>
       <c r="G22" s="18">
         <f>SUM(B22:F22)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
@@ -7251,7 +7241,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="18">
         <v>2</v>
@@ -7267,7 +7257,7 @@
       </c>
       <c r="G24" s="18">
         <f>SUM(B24:F24)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
@@ -7275,7 +7265,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="17">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="C25" s="18">
         <v>2</v>
@@ -7291,7 +7281,7 @@
       </c>
       <c r="G25" s="18">
         <f>SUM(B25:F25)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
@@ -7299,7 +7289,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="18">
         <v>2</v>
@@ -7315,7 +7305,7 @@
       </c>
       <c r="G26" s="18">
         <f>SUM(B26:F26)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
@@ -7323,7 +7313,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="18">
         <v>0</v>
@@ -7339,7 +7329,7 @@
       </c>
       <c r="G27" s="18">
         <f>SUM(B27:F27)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
@@ -7415,7 +7405,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="18">
         <v>2</v>
@@ -7431,7 +7421,7 @@
       </c>
       <c r="G33" s="18">
         <f>SUM(B33:F33)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" ht="20.05" customHeight="1">
@@ -7450,7 +7440,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="18">
         <v>2</v>
@@ -7466,7 +7456,7 @@
       </c>
       <c r="G35" s="18">
         <f>SUM(B35:F35)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" ht="20.05" customHeight="1">
@@ -7474,7 +7464,7 @@
         <v>46</v>
       </c>
       <c r="B36" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" s="18">
         <v>2</v>
@@ -7490,7 +7480,7 @@
       </c>
       <c r="G36" s="18">
         <f>SUM(B36:F36)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" ht="20.05" customHeight="1">
@@ -7531,7 +7521,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="18">
         <v>2</v>
@@ -7547,7 +7537,7 @@
       </c>
       <c r="G40" s="18">
         <f>SUM(B40:F40)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="20.05" customHeight="1">
@@ -7555,7 +7545,7 @@
         <v>51</v>
       </c>
       <c r="B41" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" s="18">
         <v>2</v>
@@ -7571,7 +7561,7 @@
       </c>
       <c r="G41" s="18">
         <f>SUM(B41:F41)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" ht="20.05" customHeight="1">
@@ -7601,7 +7591,7 @@
         <v>54</v>
       </c>
       <c r="B44" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" s="18">
         <v>2</v>
@@ -7617,7 +7607,7 @@
       </c>
       <c r="G44" s="18">
         <f>SUM(B44:F44)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" ht="20.05" customHeight="1">
@@ -7625,7 +7615,7 @@
         <v>55</v>
       </c>
       <c r="B45" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" s="18">
         <v>2</v>
@@ -7641,7 +7631,7 @@
       </c>
       <c r="G45" s="18">
         <f>SUM(B45:F45)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" ht="20.05" customHeight="1">
@@ -7649,7 +7639,7 @@
         <v>56</v>
       </c>
       <c r="B46" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="18">
         <v>2</v>
@@ -7665,7 +7655,7 @@
       </c>
       <c r="G46" s="18">
         <f>SUM(B46:F46)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" ht="20.05" customHeight="1">
@@ -7673,7 +7663,7 @@
         <v>57</v>
       </c>
       <c r="B47" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47" s="18">
         <v>2</v>
@@ -7689,7 +7679,7 @@
       </c>
       <c r="G47" s="18">
         <f>SUM(B47:F47)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" ht="20.05" customHeight="1">
@@ -7697,7 +7687,7 @@
         <v>58</v>
       </c>
       <c r="B48" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C48" s="18">
         <v>2</v>
@@ -7713,7 +7703,7 @@
       </c>
       <c r="G48" s="18">
         <f>SUM(B48:F48)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="20.05" customHeight="1">
@@ -7721,7 +7711,7 @@
         <v>59</v>
       </c>
       <c r="B49" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="18">
         <v>2</v>
@@ -7737,7 +7727,7 @@
       </c>
       <c r="G49" s="18">
         <f>SUM(B49:F49)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="20.05" customHeight="1">
@@ -7767,7 +7757,7 @@
         <v>62</v>
       </c>
       <c r="B52" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="18">
         <v>2</v>
@@ -7783,7 +7773,7 @@
       </c>
       <c r="G52" s="18">
         <f>SUM(B52:F52)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" ht="20.05" customHeight="1">
@@ -7791,7 +7781,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" s="18">
         <v>2</v>
@@ -7807,7 +7797,7 @@
       </c>
       <c r="G53" s="18">
         <f>SUM(B53:F53)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" ht="20.05" customHeight="1">
@@ -7815,7 +7805,7 @@
         <v>64</v>
       </c>
       <c r="B54" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="18">
         <v>2</v>
@@ -7831,7 +7821,7 @@
       </c>
       <c r="G54" s="18">
         <f>SUM(B54:F54)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="20.25" customHeight="1">
@@ -7850,7 +7840,7 @@
         <v>66</v>
       </c>
       <c r="B56" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" s="18">
         <v>2</v>
@@ -7866,7 +7856,7 @@
       </c>
       <c r="G56" s="18">
         <f>SUM(B56:F56)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" ht="20.45" customHeight="1">
@@ -7896,7 +7886,7 @@
         <v>69</v>
       </c>
       <c r="B59" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="18">
         <v>2</v>
@@ -7912,7 +7902,7 @@
       </c>
       <c r="G59" s="18">
         <f>SUM(B59:F59)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" ht="20.45" customHeight="1">
@@ -7975,7 +7965,7 @@
         <v>75</v>
       </c>
       <c r="B65" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="18">
         <v>2</v>
@@ -7991,7 +7981,7 @@
       </c>
       <c r="G65" s="18">
         <f>SUM(B65:F65)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="20.45" customHeight="1">
@@ -8010,7 +8000,7 @@
         <v>77</v>
       </c>
       <c r="B67" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C67" s="18">
         <v>2</v>
@@ -8026,7 +8016,7 @@
       </c>
       <c r="G67" s="18">
         <f>SUM(B67:F67)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="20.45" customHeight="1">
@@ -8034,7 +8024,7 @@
         <v>78</v>
       </c>
       <c r="B68" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="18">
         <v>2</v>
@@ -8050,7 +8040,7 @@
       </c>
       <c r="G68" s="18">
         <f>SUM(B68:F68)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="20.45" customHeight="1">
@@ -8080,7 +8070,7 @@
         <v>81</v>
       </c>
       <c r="B71" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" s="18">
         <v>2</v>
@@ -8096,7 +8086,7 @@
       </c>
       <c r="G71" s="18">
         <f>SUM(B71:F71)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" ht="20.45" customHeight="1">
@@ -8115,7 +8105,7 @@
         <v>83</v>
       </c>
       <c r="B73" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C73" s="18">
         <v>2</v>
@@ -8131,7 +8121,7 @@
       </c>
       <c r="G73" s="18">
         <f>SUM(B73:F73)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" ht="20.45" customHeight="1">
@@ -8139,7 +8129,7 @@
         <v>84</v>
       </c>
       <c r="B74" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="18">
         <v>2</v>
@@ -8155,7 +8145,7 @@
       </c>
       <c r="G74" s="18">
         <f>SUM(B74:F74)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" ht="20.45" customHeight="1">
@@ -8163,7 +8153,7 @@
         <v>85</v>
       </c>
       <c r="B75" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" s="18">
         <v>1</v>
@@ -8179,7 +8169,7 @@
       </c>
       <c r="G75" s="18">
         <f>SUM(B75:F75)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="20.45" customHeight="1">
@@ -8209,7 +8199,7 @@
         <v>88</v>
       </c>
       <c r="B78" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C78" s="18">
         <v>1</v>
@@ -8225,7 +8215,7 @@
       </c>
       <c r="G78" s="18">
         <f>SUM(B78:F78)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" ht="20.45" customHeight="1">
@@ -8233,7 +8223,7 @@
         <v>89</v>
       </c>
       <c r="B79" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="18">
         <v>2</v>
@@ -8249,7 +8239,7 @@
       </c>
       <c r="G79" s="18">
         <f>SUM(B79:F79)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" ht="20.45" customHeight="1">
@@ -8257,7 +8247,7 @@
         <v>90</v>
       </c>
       <c r="B80" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="18">
         <v>2</v>
@@ -8273,7 +8263,7 @@
       </c>
       <c r="G80" s="18">
         <f>SUM(B80:F80)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" ht="20.45" customHeight="1">
@@ -8281,7 +8271,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" s="18">
         <v>2</v>
@@ -8297,7 +8287,7 @@
       </c>
       <c r="G81" s="18">
         <f>SUM(B81:F81)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" ht="20.45" customHeight="1">
@@ -8316,7 +8306,7 @@
         <v>92</v>
       </c>
       <c r="B83" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="18">
         <v>2</v>
@@ -8332,7 +8322,7 @@
       </c>
       <c r="G83" s="18">
         <f>SUM(B83:F83)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" ht="20.45" customHeight="1">
@@ -8340,7 +8330,7 @@
         <v>93</v>
       </c>
       <c r="B84" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" s="18">
         <v>2</v>
@@ -8356,7 +8346,7 @@
       </c>
       <c r="G84" s="18">
         <f>SUM(B84:F84)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" ht="20.45" customHeight="1">
@@ -8375,7 +8365,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C86" s="18">
         <v>2</v>
@@ -8391,7 +8381,7 @@
       </c>
       <c r="G86" s="18">
         <f>SUM(B86:F86)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="20.45" customHeight="1">
@@ -8399,7 +8389,7 @@
         <v>96</v>
       </c>
       <c r="B87" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" s="18">
         <v>2</v>
@@ -8415,7 +8405,7 @@
       </c>
       <c r="G87" s="18">
         <f>SUM(B87:F87)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="20.45" customHeight="1">
@@ -8456,7 +8446,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="17">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C91" s="18">
         <v>2</v>
@@ -8472,7 +8462,7 @@
       </c>
       <c r="G91" s="18">
         <f>SUM(B91:F91)</f>
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" ht="20.45" customHeight="1">
@@ -8480,7 +8470,7 @@
         <v>108</v>
       </c>
       <c r="B92" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" s="18">
         <v>2</v>
@@ -8496,7 +8486,7 @@
       </c>
       <c r="G92" s="18">
         <f>SUM(B92:F92)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" ht="20.45" customHeight="1">

--- a/оценки.xlsx
+++ b/оценки.xlsx
@@ -11,12 +11,13 @@
     <sheet name="Sheet 2 - Quiz 3" sheetId="3" r:id="rId6"/>
     <sheet name="Sheet 3 - Quiz 4" sheetId="4" r:id="rId7"/>
     <sheet name="Sheet 4 - Quiz 5" sheetId="5" r:id="rId8"/>
+    <sheet name="Sheet 5 - Quiz 6" sheetId="6" r:id="rId9"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -352,6 +353,15 @@
   </si>
   <si>
     <t>Sheet 4 - Quiz 5</t>
+  </si>
+  <si>
+    <t>Sheet 5</t>
+  </si>
+  <si>
+    <t>Quiz 6</t>
+  </si>
+  <si>
+    <t>Sheet 5 - Quiz 6</t>
   </si>
 </sst>
 </file>
@@ -577,7 +587,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -669,6 +679,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -1850,6 +1863,22 @@
         <v>111</v>
       </c>
     </row>
+    <row r="17">
+      <c r="B17" t="s" s="3">
+        <v>112</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="4"/>
+      <c r="C18" t="s" s="4">
+        <v>113</v>
+      </c>
+      <c r="D18" t="s" s="5">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
@@ -1859,6 +1888,7 @@
     <hyperlink ref="D12" location="'Sheet 2 - Quiz 3'!R2C1" tooltip="" display="Sheet 2 - Quiz 3"/>
     <hyperlink ref="D14" location="'Sheet 3 - Quiz 4'!R2C1" tooltip="" display="Sheet 3 - Quiz 4"/>
     <hyperlink ref="D16" location="'Sheet 4 - Quiz 5'!R2C1" tooltip="" display="Sheet 4 - Quiz 5"/>
+    <hyperlink ref="D18" location="'Sheet 5 - Quiz 6'!R2C1" tooltip="" display="Sheet 5 - Quiz 6"/>
   </hyperlinks>
 </worksheet>
 </file>
@@ -8512,4 +8542,1498 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:G93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="48.6328" style="33" customWidth="1"/>
+    <col min="2" max="7" width="16.3516" style="33" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" ht="20.25" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="27">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27">
+        <v>3</v>
+      </c>
+      <c r="E2" s="27">
+        <v>4</v>
+      </c>
+      <c r="F2" s="27">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" t="s" s="30">
+        <v>13</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="B7" s="17">
+        <v>2</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="18">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18">
+        <f>SUM(B7:F7)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="16">
+        <v>18</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>2</v>
+      </c>
+      <c r="F9" s="18">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18">
+        <f>SUM(B9:F9)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="B14" s="17">
+        <v>2</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2</v>
+      </c>
+      <c r="G14" s="18">
+        <f>SUM(B14:F14)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="16">
+        <v>25</v>
+      </c>
+      <c r="B15" s="17">
+        <v>2</v>
+      </c>
+      <c r="C15" s="18">
+        <v>2</v>
+      </c>
+      <c r="D15" s="18">
+        <v>2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18">
+        <f>SUM(B15:F15)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="16">
+        <v>26</v>
+      </c>
+      <c r="B16" s="17">
+        <v>2</v>
+      </c>
+      <c r="C16" s="18">
+        <v>2</v>
+      </c>
+      <c r="D16" s="18">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2</v>
+      </c>
+      <c r="F16" s="18">
+        <v>2</v>
+      </c>
+      <c r="G16" s="18">
+        <f>SUM(B16:F16)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="16">
+        <v>27</v>
+      </c>
+      <c r="B17" s="17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18">
+        <v>2</v>
+      </c>
+      <c r="G17" s="18">
+        <f>SUM(B17:F17)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="16">
+        <v>28</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="16">
+        <v>29</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="16">
+        <v>30</v>
+      </c>
+      <c r="B20" s="17">
+        <v>2</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="18">
+        <v>2</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="18">
+        <f>SUM(B20:F20)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="16">
+        <v>31</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="16">
+        <v>32</v>
+      </c>
+      <c r="B22" s="17">
+        <v>2</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18">
+        <v>2</v>
+      </c>
+      <c r="E22" s="18">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18">
+        <v>2</v>
+      </c>
+      <c r="G22" s="18">
+        <f>SUM(B22:F22)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="16">
+        <v>33</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="16">
+        <v>34</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="16">
+        <v>35</v>
+      </c>
+      <c r="B25" s="17">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1</v>
+      </c>
+      <c r="D25" s="18">
+        <v>2</v>
+      </c>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <f>SUM(B25:F25)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="16">
+        <v>36</v>
+      </c>
+      <c r="B26" s="17">
+        <v>2</v>
+      </c>
+      <c r="C26" s="18">
+        <v>2</v>
+      </c>
+      <c r="D26" s="18">
+        <v>2</v>
+      </c>
+      <c r="E26" s="18">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18">
+        <v>2</v>
+      </c>
+      <c r="G26" s="18">
+        <f>SUM(B26:F26)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="16">
+        <v>37</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="16">
+        <v>38</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="16">
+        <v>39</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="16">
+        <v>41</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="16">
+        <v>42</v>
+      </c>
+      <c r="B32" s="17">
+        <v>2</v>
+      </c>
+      <c r="C32" s="18">
+        <v>2</v>
+      </c>
+      <c r="D32" s="18">
+        <v>2</v>
+      </c>
+      <c r="E32" s="18">
+        <v>2</v>
+      </c>
+      <c r="F32" s="18">
+        <v>2</v>
+      </c>
+      <c r="G32" s="18">
+        <f>SUM(B32:F32)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="16">
+        <v>43</v>
+      </c>
+      <c r="B33" s="17">
+        <v>2</v>
+      </c>
+      <c r="C33" s="18">
+        <v>2</v>
+      </c>
+      <c r="D33" s="18">
+        <v>2</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2</v>
+      </c>
+      <c r="F33" s="18">
+        <v>2</v>
+      </c>
+      <c r="G33" s="18">
+        <f>SUM(B33:F33)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="16">
+        <v>44</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="16">
+        <v>45</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="16">
+        <v>46</v>
+      </c>
+      <c r="B36" s="17">
+        <v>2</v>
+      </c>
+      <c r="C36" s="18">
+        <v>2</v>
+      </c>
+      <c r="D36" s="18">
+        <v>2</v>
+      </c>
+      <c r="E36" s="18">
+        <v>2</v>
+      </c>
+      <c r="F36" s="18">
+        <v>2</v>
+      </c>
+      <c r="G36" s="18">
+        <f>SUM(B36:F36)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="16">
+        <v>47</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="16">
+        <v>48</v>
+      </c>
+      <c r="B38" s="17">
+        <v>2</v>
+      </c>
+      <c r="C38" s="18">
+        <v>2</v>
+      </c>
+      <c r="D38" s="18">
+        <v>2</v>
+      </c>
+      <c r="E38" s="18">
+        <v>2</v>
+      </c>
+      <c r="F38" s="18">
+        <v>2</v>
+      </c>
+      <c r="G38" s="18">
+        <f>SUM(B38:F38)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="A39" t="s" s="16">
+        <v>49</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="A40" t="s" s="16">
+        <v>50</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" ht="20.05" customHeight="1">
+      <c r="A41" t="s" s="16">
+        <v>51</v>
+      </c>
+      <c r="B41" s="17">
+        <v>2</v>
+      </c>
+      <c r="C41" s="18">
+        <v>2</v>
+      </c>
+      <c r="D41" s="18">
+        <v>2</v>
+      </c>
+      <c r="E41" s="18">
+        <v>2</v>
+      </c>
+      <c r="F41" s="18">
+        <v>2</v>
+      </c>
+      <c r="G41" s="18">
+        <f>SUM(B41:F41)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" ht="20.05" customHeight="1">
+      <c r="A42" t="s" s="16">
+        <v>52</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="A43" t="s" s="16">
+        <v>53</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="A44" t="s" s="16">
+        <v>54</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="A45" t="s" s="16">
+        <v>55</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="A46" t="s" s="16">
+        <v>56</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="A47" t="s" s="16">
+        <v>57</v>
+      </c>
+      <c r="B47" s="17">
+        <v>2</v>
+      </c>
+      <c r="C47" s="18">
+        <v>2</v>
+      </c>
+      <c r="D47" s="18">
+        <v>2</v>
+      </c>
+      <c r="E47" s="18">
+        <v>2</v>
+      </c>
+      <c r="F47" s="18">
+        <v>2</v>
+      </c>
+      <c r="G47" s="18">
+        <f>SUM(B47:F47)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="A48" t="s" s="16">
+        <v>58</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="A49" t="s" s="16">
+        <v>59</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="A50" t="s" s="16">
+        <v>60</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="A51" t="s" s="16">
+        <v>61</v>
+      </c>
+      <c r="B51" s="17">
+        <v>2</v>
+      </c>
+      <c r="C51" s="18">
+        <v>1</v>
+      </c>
+      <c r="D51" s="18">
+        <v>2</v>
+      </c>
+      <c r="E51" s="18">
+        <v>2</v>
+      </c>
+      <c r="F51" s="18">
+        <v>2</v>
+      </c>
+      <c r="G51" s="18">
+        <f>SUM(B51:F51)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="A52" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="B52" s="17">
+        <v>2</v>
+      </c>
+      <c r="C52" s="18">
+        <v>2</v>
+      </c>
+      <c r="D52" s="18">
+        <v>2</v>
+      </c>
+      <c r="E52" s="18">
+        <v>2</v>
+      </c>
+      <c r="F52" s="18">
+        <v>2</v>
+      </c>
+      <c r="G52" s="18">
+        <f>SUM(B52:F52)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="A53" t="s" s="16">
+        <v>63</v>
+      </c>
+      <c r="B53" s="17">
+        <v>2</v>
+      </c>
+      <c r="C53" s="18">
+        <v>2</v>
+      </c>
+      <c r="D53" s="18">
+        <v>2</v>
+      </c>
+      <c r="E53" s="18">
+        <v>2</v>
+      </c>
+      <c r="F53" s="18">
+        <v>2</v>
+      </c>
+      <c r="G53" s="18">
+        <f>SUM(B53:F53)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="A54" t="s" s="16">
+        <v>64</v>
+      </c>
+      <c r="B54" s="17">
+        <v>2</v>
+      </c>
+      <c r="C54" s="18">
+        <v>2</v>
+      </c>
+      <c r="D54" s="18">
+        <v>2</v>
+      </c>
+      <c r="E54" s="18">
+        <v>2</v>
+      </c>
+      <c r="F54" s="18">
+        <v>2</v>
+      </c>
+      <c r="G54" s="18">
+        <f>SUM(B54:F54)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" ht="20.25" customHeight="1">
+      <c r="A55" s="21"/>
+      <c r="B55" t="s" s="22">
+        <v>65</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" ht="20.45" customHeight="1">
+      <c r="A56" t="s" s="23">
+        <v>66</v>
+      </c>
+      <c r="B56" s="19"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" ht="20.45" customHeight="1">
+      <c r="A57" t="s" s="23">
+        <v>67</v>
+      </c>
+      <c r="B57" s="19"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" ht="20.45" customHeight="1">
+      <c r="A58" t="s" s="23">
+        <v>68</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" ht="20.45" customHeight="1">
+      <c r="A59" t="s" s="23">
+        <v>69</v>
+      </c>
+      <c r="B59" s="19"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" ht="20.45" customHeight="1">
+      <c r="A60" t="s" s="23">
+        <v>70</v>
+      </c>
+      <c r="B60" s="19"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" ht="20.45" customHeight="1">
+      <c r="A61" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="B61" s="19"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" ht="20.45" customHeight="1">
+      <c r="A62" t="s" s="23">
+        <v>72</v>
+      </c>
+      <c r="B62" s="17">
+        <v>2</v>
+      </c>
+      <c r="C62" s="18">
+        <v>1</v>
+      </c>
+      <c r="D62" s="18">
+        <v>2</v>
+      </c>
+      <c r="E62" s="18">
+        <v>2</v>
+      </c>
+      <c r="F62" s="18">
+        <v>2</v>
+      </c>
+      <c r="G62" s="18">
+        <f>SUM(B62:F62)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" ht="20.45" customHeight="1">
+      <c r="A63" t="s" s="23">
+        <v>73</v>
+      </c>
+      <c r="B63" s="17">
+        <v>2</v>
+      </c>
+      <c r="C63" s="18">
+        <v>2</v>
+      </c>
+      <c r="D63" s="18">
+        <v>2</v>
+      </c>
+      <c r="E63" s="18">
+        <v>2</v>
+      </c>
+      <c r="F63" s="18">
+        <v>2</v>
+      </c>
+      <c r="G63" s="18">
+        <f>SUM(B63:F63)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" ht="20.45" customHeight="1">
+      <c r="A64" t="s" s="23">
+        <v>74</v>
+      </c>
+      <c r="B64" s="17">
+        <v>0</v>
+      </c>
+      <c r="C64" s="18">
+        <v>1</v>
+      </c>
+      <c r="D64" s="18">
+        <v>2</v>
+      </c>
+      <c r="E64" s="18">
+        <v>2</v>
+      </c>
+      <c r="F64" s="18">
+        <v>2</v>
+      </c>
+      <c r="G64" s="18">
+        <f>SUM(B64:F64)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" ht="20.45" customHeight="1">
+      <c r="A65" t="s" s="23">
+        <v>75</v>
+      </c>
+      <c r="B65" s="17">
+        <v>2</v>
+      </c>
+      <c r="C65" s="18">
+        <v>2</v>
+      </c>
+      <c r="D65" s="18">
+        <v>2</v>
+      </c>
+      <c r="E65" s="18">
+        <v>2</v>
+      </c>
+      <c r="F65" s="18">
+        <v>2</v>
+      </c>
+      <c r="G65" s="18">
+        <f>SUM(B65:F65)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" ht="20.45" customHeight="1">
+      <c r="A66" t="s" s="23">
+        <v>76</v>
+      </c>
+      <c r="B66" s="19"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" ht="20.45" customHeight="1">
+      <c r="A67" t="s" s="23">
+        <v>77</v>
+      </c>
+      <c r="B67" s="19"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" ht="20.45" customHeight="1">
+      <c r="A68" t="s" s="23">
+        <v>78</v>
+      </c>
+      <c r="B68" s="19"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" ht="20.45" customHeight="1">
+      <c r="A69" t="s" s="23">
+        <v>79</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" ht="20.45" customHeight="1">
+      <c r="A70" t="s" s="23">
+        <v>80</v>
+      </c>
+      <c r="B70" s="19"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" ht="20.45" customHeight="1">
+      <c r="A71" t="s" s="23">
+        <v>81</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" ht="20.45" customHeight="1">
+      <c r="A72" t="s" s="23">
+        <v>82</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" ht="20.45" customHeight="1">
+      <c r="A73" t="s" s="23">
+        <v>83</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" ht="20.45" customHeight="1">
+      <c r="A74" t="s" s="23">
+        <v>84</v>
+      </c>
+      <c r="B74" s="17">
+        <v>2</v>
+      </c>
+      <c r="C74" s="18">
+        <v>1</v>
+      </c>
+      <c r="D74" s="18">
+        <v>2</v>
+      </c>
+      <c r="E74" s="18">
+        <v>2</v>
+      </c>
+      <c r="F74" s="18">
+        <v>2</v>
+      </c>
+      <c r="G74" s="18">
+        <f>SUM(B74:F74)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" ht="20.45" customHeight="1">
+      <c r="A75" t="s" s="23">
+        <v>85</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+    </row>
+    <row r="76" ht="20.45" customHeight="1">
+      <c r="A76" t="s" s="23">
+        <v>86</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+    </row>
+    <row r="77" ht="20.45" customHeight="1">
+      <c r="A77" t="s" s="23">
+        <v>87</v>
+      </c>
+      <c r="B77" s="17">
+        <v>2</v>
+      </c>
+      <c r="C77" s="18">
+        <v>2</v>
+      </c>
+      <c r="D77" s="18">
+        <v>2</v>
+      </c>
+      <c r="E77" s="18">
+        <v>2</v>
+      </c>
+      <c r="F77" s="18">
+        <v>2</v>
+      </c>
+      <c r="G77" s="18">
+        <f>SUM(B77:F77)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" ht="20.45" customHeight="1">
+      <c r="A78" t="s" s="23">
+        <v>88</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+    </row>
+    <row r="79" ht="20.45" customHeight="1">
+      <c r="A79" t="s" s="23">
+        <v>89</v>
+      </c>
+      <c r="B79" s="17">
+        <v>2</v>
+      </c>
+      <c r="C79" s="18">
+        <v>1</v>
+      </c>
+      <c r="D79" s="18">
+        <v>2</v>
+      </c>
+      <c r="E79" s="18">
+        <v>2</v>
+      </c>
+      <c r="F79" s="18">
+        <v>2</v>
+      </c>
+      <c r="G79" s="18">
+        <f>SUM(B79:F79)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" ht="20.45" customHeight="1">
+      <c r="A80" t="s" s="23">
+        <v>90</v>
+      </c>
+      <c r="B80" s="17">
+        <v>2</v>
+      </c>
+      <c r="C80" s="18">
+        <v>2</v>
+      </c>
+      <c r="D80" s="18">
+        <v>2</v>
+      </c>
+      <c r="E80" s="18">
+        <v>2</v>
+      </c>
+      <c r="F80" s="18">
+        <v>2</v>
+      </c>
+      <c r="G80" s="18">
+        <f>SUM(B80:F80)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" ht="20.45" customHeight="1">
+      <c r="A81" t="s" s="23">
+        <v>103</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+    </row>
+    <row r="82" ht="20.45" customHeight="1">
+      <c r="A82" s="24"/>
+      <c r="B82" t="s" s="25">
+        <v>91</v>
+      </c>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+    </row>
+    <row r="83" ht="20.45" customHeight="1">
+      <c r="A83" t="s" s="23">
+        <v>92</v>
+      </c>
+      <c r="B83" s="17">
+        <v>2</v>
+      </c>
+      <c r="C83" s="18">
+        <v>1</v>
+      </c>
+      <c r="D83" s="18">
+        <v>2</v>
+      </c>
+      <c r="E83" s="18">
+        <v>2</v>
+      </c>
+      <c r="F83" s="18">
+        <v>2</v>
+      </c>
+      <c r="G83" s="18">
+        <f>SUM(B83:F83)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" ht="20.45" customHeight="1">
+      <c r="A84" t="s" s="23">
+        <v>93</v>
+      </c>
+      <c r="B84" s="17">
+        <v>2</v>
+      </c>
+      <c r="C84" s="18">
+        <v>1</v>
+      </c>
+      <c r="D84" s="18">
+        <v>2</v>
+      </c>
+      <c r="E84" s="18">
+        <v>2</v>
+      </c>
+      <c r="F84" s="18">
+        <v>2</v>
+      </c>
+      <c r="G84" s="18">
+        <f>SUM(B84:F84)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" ht="20.45" customHeight="1">
+      <c r="A85" s="24"/>
+      <c r="B85" t="s" s="25">
+        <v>94</v>
+      </c>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+    </row>
+    <row r="86" ht="20.45" customHeight="1">
+      <c r="A86" t="s" s="23">
+        <v>95</v>
+      </c>
+      <c r="B86" s="17">
+        <v>2</v>
+      </c>
+      <c r="C86" s="18">
+        <v>2</v>
+      </c>
+      <c r="D86" s="18">
+        <v>2</v>
+      </c>
+      <c r="E86" s="18">
+        <v>2</v>
+      </c>
+      <c r="F86" s="18">
+        <v>2</v>
+      </c>
+      <c r="G86" s="18">
+        <f>SUM(B86:F86)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" ht="20.45" customHeight="1">
+      <c r="A87" t="s" s="23">
+        <v>96</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+    </row>
+    <row r="88" ht="20.45" customHeight="1">
+      <c r="A88" t="s" s="23">
+        <v>104</v>
+      </c>
+      <c r="B88" s="17">
+        <v>2</v>
+      </c>
+      <c r="C88" s="18">
+        <v>2</v>
+      </c>
+      <c r="D88" s="18">
+        <v>2</v>
+      </c>
+      <c r="E88" s="18">
+        <v>2</v>
+      </c>
+      <c r="F88" s="18">
+        <v>0</v>
+      </c>
+      <c r="G88" s="18">
+        <f>SUM(B88:F88)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" ht="20.45" customHeight="1">
+      <c r="A89" t="s" s="23">
+        <v>97</v>
+      </c>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+    </row>
+    <row r="90" ht="20.45" customHeight="1">
+      <c r="A90" t="s" s="23">
+        <v>98</v>
+      </c>
+      <c r="B90" s="19"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+    </row>
+    <row r="91" ht="20.45" customHeight="1">
+      <c r="A91" t="s" s="23">
+        <v>99</v>
+      </c>
+      <c r="B91" s="17">
+        <v>2</v>
+      </c>
+      <c r="C91" s="18">
+        <v>2</v>
+      </c>
+      <c r="D91" s="18">
+        <v>2</v>
+      </c>
+      <c r="E91" s="18">
+        <v>2</v>
+      </c>
+      <c r="F91" s="18">
+        <v>2</v>
+      </c>
+      <c r="G91" s="18">
+        <f>SUM(B91:F91)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" ht="20.45" customHeight="1">
+      <c r="A92" t="s" s="23">
+        <v>108</v>
+      </c>
+      <c r="B92" s="19"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+    </row>
+    <row r="93" ht="20.45" customHeight="1">
+      <c r="A93" s="24"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B85:G85"/>
+  </mergeCells>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>